--- a/BalanceSheet/DRE_bal.xlsx
+++ b/BalanceSheet/DRE_bal.xlsx
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>354454000.0</v>
+        <v>108514000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>94864000.0</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>443265000.0</v>
+        <v>197325000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>157196000.0</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3593041000.0</v>
+        <v>3838981000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3719750000.0</v>
@@ -3567,10 +3567,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>374306000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>373258000.0</v>
@@ -4018,7 +4016,7 @@
         <v>2958000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2849000000.0</v>
+        <v>2807874000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2646349000.0</v>
@@ -4145,7 +4143,7 @@
         <v>3146000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>2962000000.0</v>
+        <v>2918765000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>2767582000.0</v>
